--- a/飞思卡尔.xlsx
+++ b/飞思卡尔.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>林戈阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>京东 8G SD卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月4日 14:33:11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭帮成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MMA8451 模块   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,6 +471,20 @@
         <v>22.9</v>
       </c>
     </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/飞思卡尔.xlsx
+++ b/飞思卡尔.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>林戈阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,38 @@
   </si>
   <si>
     <t xml:space="preserve">MMA8451 模块   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月15日 17:35:17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭帮成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCB  打板费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未加邮费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月15日 17:39:34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭帮成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120度广角镜头*4 (丁煌浩两个)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未加邮费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,6 +517,46 @@
         <v>21</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="2">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>104</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D7" s="2">
+        <f>SUM(D2:D6)</f>
+        <v>252.9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/飞思卡尔.xlsx
+++ b/飞思卡尔.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>林戈阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,7 +92,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未加邮费</t>
+    <t>邮费 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 丁煌浩52未给</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月18日 18:48:19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭帮成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">L3G4200+MPU6050 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -447,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -458,9 +474,10 @@
     <col min="1" max="1" width="29.75" customWidth="1"/>
     <col min="3" max="3" width="44.375" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
+    <col min="6" max="6" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -474,7 +491,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -489,7 +506,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -503,7 +520,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -517,7 +534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -534,7 +551,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -550,11 +567,28 @@
       <c r="E6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="D7" s="2">
         <f>SUM(D2:D6)</f>
         <v>252.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2">
+        <v>33.799999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/飞思卡尔.xlsx
+++ b/飞思卡尔.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>林戈阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,18 +88,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120度广角镜头*4 (丁煌浩两个)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邮费 18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 丁煌浩52未给</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015年1月18日 18:48:19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,6 +101,26 @@
   </si>
   <si>
     <t xml:space="preserve">L3G4200+MPU6050 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 丁煌浩52-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年1月19日丁煌浩帮付餐费 45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰到付运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120度广角镜头*4 (丁煌浩两个)  105RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,21 +475,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="29.75" customWidth="1"/>
     <col min="3" max="3" width="44.375" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
+    <col min="4" max="4" width="9" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.125" customWidth="1"/>
+    <col min="7" max="7" width="32.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -490,8 +503,15 @@
       <c r="D1" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2">
+        <f>SUM(D2:D30)</f>
+        <v>289.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -506,7 +526,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -520,7 +540,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -534,7 +554,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -551,7 +571,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -559,33 +579,38 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="2">
+        <v>89</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="2">
-        <v>104</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="D7" s="2">
-        <f>SUM(D2:D6)</f>
-        <v>252.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>33.799999999999997</v>

--- a/飞思卡尔.xlsx
+++ b/飞思卡尔.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>林戈阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未加邮费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2015年1月15日 17:39:34</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +117,10 @@
   </si>
   <si>
     <t>总计:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>youfei22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,7 +504,7 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2">
         <f>SUM(D2:D30)</f>
@@ -568,35 +568,35 @@
         <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="2">
         <v>89</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>18</v>
@@ -604,13 +604,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
       </c>
       <c r="D8" s="2">
         <v>33.799999999999997</v>

--- a/飞思卡尔.xlsx
+++ b/飞思卡尔.xlsx
@@ -120,7 +120,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>youfei22</t>
+    <t>邮费22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -478,7 +478,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/飞思卡尔.xlsx
+++ b/飞思卡尔.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>林戈阳</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,30 @@
   </si>
   <si>
     <t>邮费22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年2月27日 21:02:32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭帮成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4mm+3.6mm镜头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮费23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年2月27日 21:02:55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>谭帮成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -508,7 +532,7 @@
       </c>
       <c r="G1" s="2">
         <f>SUM(D2:D30)</f>
-        <v>289.7</v>
+        <v>360.3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
@@ -614,6 +638,37 @@
       </c>
       <c r="D8" s="2">
         <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
